--- a/storage/app/budget/17/2021/Бюджет.xlsx
+++ b/storage/app/budget/17/2021/Бюджет.xlsx
@@ -67,13 +67,42 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,14 +122,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="3"/>
+    <cellStyle name="Обычный 2 2" xfId="6"/>
+    <cellStyle name="Обычный 3" xfId="7"/>
+    <cellStyle name="Обычный 4" xfId="5"/>
+    <cellStyle name="Обычный 5" xfId="8"/>
+    <cellStyle name="Финансовый 2" xfId="2"/>
+    <cellStyle name="Финансовый 3" xfId="4"/>
+    <cellStyle name="Финансовый 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -381,7 +427,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="G11" sqref="G11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,96 +445,96 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>213.36919333333333</v>
+      <c r="A2" s="1">
+        <v>81.599999999999994</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>213.36919333333333</v>
+      <c r="A3" s="1">
+        <v>81.599999999999994</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>213.36919333333333</v>
+      <c r="A4" s="1">
+        <v>81.599999999999994</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>226.96814747000002</v>
+      <c r="A5" s="1">
+        <v>85.1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>226.96814747000002</v>
+      <c r="A6" s="1">
+        <v>85.1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>226.96814747000002</v>
+      <c r="A7" s="1">
+        <v>85.1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>325.37993</v>
+      <c r="A8" s="1">
+        <v>83.4</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>325.37993</v>
+      <c r="A9" s="1">
+        <v>83.4</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>325.37993</v>
+      <c r="A10" s="1">
+        <v>83.4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1234.2718600000001</v>
+      <c r="A11" s="1">
+        <v>83.2</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1234.2718600000001</v>
+      <c r="A12" s="1">
+        <v>83.2</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1234.2718600000001</v>
+      <c r="A13" s="1">
+        <v>83.2</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
